--- a/Proyectos/2016/1/P1443 - RNCFAC, Arturo Torres Arenal_BT/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1443 - RNCFAC, Arturo Torres Arenal_BT/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1443 - RNCFAC, Arturo Torres Arenal_BT</t>
   </si>
@@ -44,10 +44,10 @@
     <t>No existe linea base</t>
   </si>
   <si>
-    <t>Marisol Ornelas</t>
-  </si>
-  <si>
-    <t>En proceso</t>
+    <t>Braulio Hernandez</t>
+  </si>
+  <si>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>Crear una carpeta llamada lineabase y agregar tambien el plan de proyecto, carta de aceptacion, estimacion y cotizacion.</t>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>No esta correctamente nombrada la cotizacion</t>
+  </si>
+  <si>
+    <t>el personal no trabaja en oficina por lo que se cancela proyecto</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,11 +466,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
